--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelabreu/Desktop/Smart metering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D905EC-0B93-EF4A-8815-CF8E93CF55AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13320036-42D2-D349-871E-7086964C9A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15980" xr2:uid="{7DF38C5B-217C-7A44-9703-68912FBDF193}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Lista de material</t>
   </si>
@@ -62,21 +62,12 @@
     <t>LED Vermelho</t>
   </si>
   <si>
-    <t>Resistência</t>
-  </si>
-  <si>
-    <t>Transformador 230V AC para 5V DC (AC-DC BULK CONVERTER)</t>
-  </si>
-  <si>
     <t>Botão</t>
   </si>
   <si>
     <t>Ficha tripla</t>
   </si>
   <si>
-    <t>2.5€</t>
-  </si>
-  <si>
     <t>https://www.leroymerlin.pt/produtos/eletricidade-e-smart-home/extensoes-eletricas/blocos-de-tomadas/bloco-3-tomadas-lexman-1m-branco-82753685.html</t>
   </si>
   <si>
@@ -92,19 +83,49 @@
     <t>http://electronicshop.pt/loja/?product=modulo-rele-5v-velleman</t>
   </si>
   <si>
-    <t>0.25€</t>
-  </si>
-  <si>
-    <t>3x 4.2€</t>
-  </si>
-  <si>
     <t>http://electronicshop.pt/loja/?product=led-5mm-multicor-vermelho-e-verde-difuso-jolight-2</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Espressif-Systems/ESP32-S2-DevKitM-1-N4R2?qs=vvQtp7zwQdNx66oTi6gqpw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Texas-Instruments/LM35DZ-NOPB?qs=QbsRYf82W3F5RpWTxhXHxA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.botnroll.com/pt/outros/4301-sensor-de-tens-o-230vac-para-arduino.html</t>
+  </si>
+  <si>
+    <t>https://www.botnroll.com/pt/corrente-/3848-sensor-de-corrente-5a-acs712.html</t>
+  </si>
+  <si>
+    <t>Resistência 10k</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>https://www.leroymerlin.pt/produtos/eletricidade-e-smart-home/cabos-e-calhas-eletricos/cabos-e-fios-eletricos/cabo-h03vvh2-f-2x0-75mm2-lexman-10m-branco-17913651.html?src=clk</t>
+  </si>
+  <si>
+    <t>https://makeradvisor.com/tools/oled-display-128x64-0-96-inch/</t>
+  </si>
+  <si>
+    <t>Transformador 230V AC para 5V DC (AC-DC BUCK CONVERTER)</t>
+  </si>
+  <si>
+    <t>Material mini-caixa</t>
+  </si>
+  <si>
+    <t>https://www.leroymerlin.pt/produtos/madeiras-e-acrilicos/outros-para-bricolage/k-line-kraft-5mm-50x70cm-81961094.html?src=clk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -122,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +156,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,60 +186,40 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -230,6 +237,144 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2569633</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="127663" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9D1B5A-4CD6-EB4E-4BE5-247C76F93772}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3765550" y="1634067"/>
+              <a:ext cx="127663" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="el-GR" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Ω</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-PT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9D1B5A-4CD6-EB4E-4BE5-247C76F93772}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3765550" y="1634067"/>
+              <a:ext cx="127663" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Ω</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,200 +674,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F13ED5-2E58-5248-B69E-C7DD4B28C075}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7">
+        <v>4.95</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2">
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7">
+        <v>4.79</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7">
+        <v>7.58</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10">
+        <f>SUM(E3:E15)</f>
+        <v>55.61</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -730,18 +977,19 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" xr:uid="{5E2B84DC-DD7F-E842-B2BC-823F9D01AEE4}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{0A8E6E53-2CCD-E64E-BCE7-B53E9FEA8B9F}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{78B2300E-12AB-F145-9B14-17D8AE9C18B8}"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{F625E561-52E1-E645-90FA-6698338C64CD}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{22A3C232-C2EC-A74A-BE7E-DDB54E891982}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{82B10C3B-2E7F-2944-82AD-E5BAE191D16A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>